--- a/step1_alignment/data.xlsx
+++ b/step1_alignment/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanlin/Documents/GitHub/bat_coronavirus/step1_alignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanlin/Documents/GitHub/aPhyloGeo.sm/step1_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E3608124-6218-0D47-880A-04EA1983E694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA3D396-2E88-9840-B452-82DD2DCC1B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2120" windowWidth="27560" windowHeight="16940" activeTab="1"/>
+    <workbookView xWindow="200" yWindow="-21100" windowWidth="31900" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="333">
   <si>
     <t>Strain</t>
   </si>
@@ -1019,13 +1019,13 @@
     <t>OP894116</t>
   </si>
   <si>
-    <t>CoV group</t>
+    <t>Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1789,19 +1789,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J73" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A1:J73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J70" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J70">
+    <sortCondition ref="F1:F70"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Strain" dataDxfId="11"/>
-    <tableColumn id="10" name="CoV group" dataDxfId="0"/>
-    <tableColumn id="2" name="V_Accession_full" dataDxfId="10"/>
-    <tableColumn id="3" name="V_FullSeq_length" dataDxfId="9"/>
-    <tableColumn id="4" name="ORF1ab" dataDxfId="8"/>
-    <tableColumn id="5" name="spike" dataDxfId="7"/>
-    <tableColumn id="6" name="Host" dataDxfId="6"/>
-    <tableColumn id="7" name="Host_Accession" dataDxfId="5"/>
-    <tableColumn id="8" name="Cytb_Length" dataDxfId="4"/>
-    <tableColumn id="9" name="Reference" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Strain" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="V_Accession_full" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="V_FullSeq_length" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ORF1ab" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="spike" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Host" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Host_Accession" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cytb_Length" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{10815501-0986-BE43-9C3A-2C835F3DABEB}" name="Location" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reference" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2103,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4155,23 +4158,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="9" width="16.83203125" customWidth="1"/>
     <col min="10" max="10" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4180,28 +4183,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -4209,2106 +4212,2017 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>26975</v>
+        <v>197</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="1">
+        <v>29725</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1140</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>27164</v>
+        <v>107</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1">
+        <v>29452</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1140</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1112</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1">
-        <v>27608</v>
+        <v>326</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="1">
+        <v>31491</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>329</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1140</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
-        <v>27935</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28310</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1140</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1">
-        <v>28310</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
+        <v>28311</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="1">
-        <v>1140</v>
-      </c>
+      <c r="H6" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1">
-        <v>28311</v>
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28758</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1">
-        <v>1140</v>
-      </c>
+      <c r="H7" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1">
-        <v>28326</v>
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1">
+        <v>28755</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1">
-        <v>28476</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1">
+        <v>28765</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1">
         <v>28735</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="1">
-        <v>1140</v>
-      </c>
+      <c r="H10" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1">
-        <v>28755</v>
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28326</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1">
-        <v>28758</v>
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1">
+        <v>28476</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="1">
-        <v>28765</v>
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1">
+        <v>28773</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1">
-        <v>28773</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>27935</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1">
-        <v>29037</v>
+        <v>315</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30480</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1140</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1">
-        <v>29059</v>
+        <v>321</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30482</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1140</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="1">
-        <v>29142</v>
+        <v>269</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="1">
+        <v>29805</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="1">
-        <v>29142</v>
+        <v>283</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30256</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>286</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1140</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="1">
-        <v>29161</v>
+        <v>148</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="1">
+        <v>29689</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1140</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="1">
-        <v>29161</v>
+        <v>272</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="1">
+        <v>29855</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1140</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="1">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="1">
         <v>29276</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J21" s="1"/>
+      <c r="H21" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="1">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1">
         <v>29276</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="H22" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="1">
-        <v>29443</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>27608</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="1">
-        <v>1140</v>
-      </c>
+      <c r="H23" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="1">
-        <v>29452</v>
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>26975</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1112</v>
-      </c>
-      <c r="J24" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="1">
-        <v>29461</v>
+        <v>74</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>29037</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>1140</v>
-      </c>
+      <c r="H25" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="1">
-        <v>29484</v>
+        <v>103</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1">
+        <v>29443</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1140</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="1">
-        <v>29658</v>
+        <v>113</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1">
+        <v>29461</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1140</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="1">
-        <v>29658</v>
+        <v>241</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="1">
+        <v>29749</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="1">
-        <v>29667</v>
+        <v>218</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="1">
+        <v>29741</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1140</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="1">
-        <v>29677</v>
+        <v>213</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29736</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1140</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="1">
-        <v>29681</v>
+        <v>117</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1">
+        <v>29484</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J31" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="1">
-        <v>29687</v>
+        <v>193</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="1">
+        <v>29722</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1140</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="1">
-        <v>29688</v>
+        <v>204</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="1">
+        <v>29728</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="1">
-        <v>29689</v>
+        <v>140</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="1">
+        <v>29687</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="1">
-        <v>29695</v>
+        <v>184</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="1">
+        <v>29711</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J35" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="1">
-        <v>29695</v>
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1">
+        <v>29059</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="1">
-        <v>29695</v>
+        <v>175</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="1">
+        <v>29704</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="1">
+      <c r="C38" s="1">
         <v>29704</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="1">
+      <c r="C39" s="1">
         <v>29704</v>
       </c>
+      <c r="D39" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="1">
-        <v>29704</v>
+        <v>189</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="1">
+        <v>29716</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J40" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="1">
-        <v>29704</v>
+        <v>136</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="1">
+        <v>29681</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" s="1">
-        <v>29711</v>
+        <v>159</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="1">
+        <v>29695</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="1">
-        <v>29716</v>
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="1">
+        <v>29695</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="1">
-        <v>29722</v>
+        <v>163</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="1">
+        <v>29695</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="1">
-        <v>29725</v>
+        <v>179</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1">
+        <v>29704</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D46" s="1">
-        <v>29728</v>
+        <v>132</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1">
+        <v>29677</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="1">
-        <v>29732</v>
+        <v>257</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="1">
+        <v>29787</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="1">
-        <v>29736</v>
+        <v>262</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="1">
+        <v>29792</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J48" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" s="1">
-        <v>29741</v>
+        <v>301</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C49" s="1">
+        <v>30309</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I49" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" s="1">
-        <v>29741</v>
+        <v>123</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="1">
+        <v>29658</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J50" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D51" s="1">
-        <v>29741</v>
+        <v>88</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="1">
+        <v>29161</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J51" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" s="1">
-        <v>29743</v>
+        <v>83</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="1">
+        <v>29142</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D53" s="1">
-        <v>29743</v>
+        <v>292</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="1">
+        <v>30290</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J53" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D54" s="1">
-        <v>29749</v>
+        <v>229</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="1">
+        <v>29741</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D55" s="1">
-        <v>29769</v>
+        <v>249</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="1">
+        <v>29770</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="1">
-        <v>29770</v>
+        <v>253</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="1">
+        <v>29782</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J56" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D57" s="1">
-        <v>29782</v>
+        <v>225</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="1">
+        <v>29741</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="1">
-        <v>29787</v>
+        <v>233</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="1">
+        <v>29743</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D59" s="1">
-        <v>29792</v>
+        <v>237</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="1">
+        <v>29743</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D60" s="1">
-        <v>29802</v>
+        <v>305</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" s="1">
+        <v>30311</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D61" s="1">
-        <v>29805</v>
+        <v>297</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="1">
+        <v>30307</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J61" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D62" s="1">
-        <v>29855</v>
+        <v>244</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="1">
+        <v>29769</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D63" s="1">
-        <v>30247</v>
+        <v>144</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="1">
+        <v>29688</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D64" s="1">
-        <v>30256</v>
+        <v>127</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="1">
+        <v>29667</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I64" s="1"/>
       <c r="J64" s="1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D65" s="1">
-        <v>30286</v>
+        <v>265</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="1">
+        <v>29802</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J65" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D66" s="1">
-        <v>30290</v>
+        <v>208</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="1">
+        <v>29732</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1140</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D67" s="1">
-        <v>30307</v>
+        <v>16</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="1">
+        <v>27164</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D68" s="1">
-        <v>30309</v>
+        <v>277</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C68" s="1">
+        <v>30247</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J68" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D69" s="1">
-        <v>30311</v>
+        <v>287</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" s="1">
+        <v>30286</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1140</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D70" s="1">
+      <c r="C70" s="1">
         <v>30423</v>
       </c>
+      <c r="D70" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H70" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I70" s="1">
-        <v>1140</v>
-      </c>
+      <c r="H70" s="1">
+        <v>1140</v>
+      </c>
+      <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D71" s="1">
-        <v>30480</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D72" s="1">
-        <v>30482</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I72" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D73" s="1">
-        <v>31491</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1140</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/step1_alignment/data.xlsx
+++ b/step1_alignment/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanlin/Documents/GitHub/aPhyloGeo.sm/step1_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA3D396-2E88-9840-B452-82DD2DCC1B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087BA92F-EB5A-5945-BAB1-D10794AA8289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="-21100" windowWidth="31900" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="332">
   <si>
     <t>Strain</t>
   </si>
@@ -1017,9 +1017,6 @@
   </si>
   <si>
     <t>OP894116</t>
-  </si>
-  <si>
-    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -1558,25 +1555,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -1789,22 +1768,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J70" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I70" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I70" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I70">
     <sortCondition ref="F1:F70"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Strain" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="V_Accession_full" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="V_FullSeq_length" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ORF1ab" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="spike" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Host" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Host_Accession" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cytb_Length" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{10815501-0986-BE43-9C3A-2C835F3DABEB}" name="Location" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reference" dataDxfId="1"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Strain" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="V_Accession_full" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="V_FullSeq_length" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ORF1ab" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="spike" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Host" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Host_Accession" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cytb_Length" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4159,10 +4137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4174,11 +4152,11 @@
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="9" width="16.83203125" customWidth="1"/>
-    <col min="10" max="10" width="29.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4204,13 +4182,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -4235,12 +4210,11 @@
       <c r="H2" s="1">
         <v>1140</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
@@ -4266,9 +4240,8 @@
         <v>1112</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>326</v>
       </c>
@@ -4293,12 +4266,11 @@
       <c r="H4" s="1">
         <v>1140</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -4323,12 +4295,11 @@
       <c r="H5" s="1">
         <v>1140</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -4353,12 +4324,11 @@
       <c r="H6" s="1">
         <v>1140</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -4383,12 +4353,11 @@
       <c r="H7" s="1">
         <v>1140</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -4413,12 +4382,11 @@
       <c r="H8" s="1">
         <v>1140</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -4443,12 +4411,11 @@
       <c r="H9" s="1">
         <v>1140</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -4473,12 +4440,11 @@
       <c r="H10" s="1">
         <v>1140</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -4504,9 +4470,8 @@
         <v>1140</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -4532,9 +4497,8 @@
         <v>1140</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -4560,9 +4524,8 @@
         <v>1140</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -4587,12 +4550,11 @@
       <c r="H14" s="1">
         <v>1140</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>315</v>
       </c>
@@ -4617,12 +4579,11 @@
       <c r="H15" s="1">
         <v>1140</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>321</v>
       </c>
@@ -4648,9 +4609,8 @@
         <v>1140</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>269</v>
       </c>
@@ -4676,9 +4636,8 @@
         <v>1140</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>283</v>
       </c>
@@ -4703,12 +4662,11 @@
       <c r="H18" s="1">
         <v>1140</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
@@ -4733,12 +4691,11 @@
       <c r="H19" s="1">
         <v>1140</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>272</v>
       </c>
@@ -4763,12 +4720,11 @@
       <c r="H20" s="1">
         <v>1140</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
@@ -4793,12 +4749,11 @@
       <c r="H21" s="1">
         <v>1140</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -4824,9 +4779,8 @@
         <v>1140</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -4851,12 +4805,11 @@
       <c r="H23" s="1">
         <v>1140</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -4881,12 +4834,11 @@
       <c r="H24" s="1">
         <v>1140</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -4911,12 +4863,11 @@
       <c r="H25" s="1">
         <v>1140</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -4941,12 +4892,11 @@
       <c r="H26" s="1">
         <v>1140</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -4971,12 +4921,11 @@
       <c r="H27" s="1">
         <v>1140</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>241</v>
       </c>
@@ -5002,9 +4951,8 @@
         <v>1140</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>218</v>
       </c>
@@ -5029,12 +4977,11 @@
       <c r="H29" s="1">
         <v>1140</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>213</v>
       </c>
@@ -5060,9 +5007,8 @@
         <v>1140</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
@@ -5087,12 +5033,11 @@
       <c r="H31" s="1">
         <v>1140</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>193</v>
       </c>
@@ -5118,9 +5063,8 @@
         <v>1140</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>204</v>
       </c>
@@ -5146,9 +5090,8 @@
         <v>1140</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>140</v>
       </c>
@@ -5174,9 +5117,8 @@
         <v>1140</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>184</v>
       </c>
@@ -5201,12 +5143,11 @@
       <c r="H35" s="1">
         <v>1140</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>78</v>
       </c>
@@ -5232,9 +5173,8 @@
         <v>1140</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>175</v>
       </c>
@@ -5260,9 +5200,8 @@
         <v>1140</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>167</v>
       </c>
@@ -5288,9 +5227,8 @@
         <v>1140</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>171</v>
       </c>
@@ -5316,9 +5254,8 @@
         <v>1140</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>189</v>
       </c>
@@ -5343,12 +5280,11 @@
       <c r="H40" s="1">
         <v>1140</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>136</v>
       </c>
@@ -5374,9 +5310,8 @@
         <v>1140</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
@@ -5402,9 +5337,8 @@
         <v>1140</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>155</v>
       </c>
@@ -5430,9 +5364,8 @@
         <v>1140</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>163</v>
       </c>
@@ -5458,9 +5391,8 @@
         <v>1140</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
@@ -5485,12 +5417,11 @@
       <c r="H45" s="1">
         <v>1140</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
@@ -5516,9 +5447,8 @@
         <v>1140</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>257</v>
       </c>
@@ -5543,12 +5473,11 @@
       <c r="H47" s="1">
         <v>1140</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>262</v>
       </c>
@@ -5573,12 +5502,11 @@
       <c r="H48" s="1">
         <v>1140</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>301</v>
       </c>
@@ -5604,9 +5532,8 @@
         <v>1140</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -5631,12 +5558,11 @@
       <c r="H50" s="1">
         <v>1140</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
@@ -5661,12 +5587,11 @@
       <c r="H51" s="1">
         <v>1140</v>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>83</v>
       </c>
@@ -5691,12 +5616,11 @@
       <c r="H52" s="1">
         <v>1140</v>
       </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>292</v>
       </c>
@@ -5721,12 +5645,11 @@
       <c r="H53" s="1">
         <v>1140</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>229</v>
       </c>
@@ -5752,9 +5675,8 @@
         <v>1140</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>249</v>
       </c>
@@ -5780,9 +5702,8 @@
         <v>1140</v>
       </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>253</v>
       </c>
@@ -5807,12 +5728,11 @@
       <c r="H56" s="1">
         <v>1140</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>225</v>
       </c>
@@ -5838,9 +5758,8 @@
         <v>1140</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>233</v>
       </c>
@@ -5865,12 +5784,11 @@
       <c r="H58" s="1">
         <v>1140</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>237</v>
       </c>
@@ -5896,9 +5814,8 @@
         <v>1140</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>305</v>
       </c>
@@ -5924,9 +5841,8 @@
         <v>1140</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>297</v>
       </c>
@@ -5951,12 +5867,11 @@
       <c r="H61" s="1">
         <v>1140</v>
       </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>244</v>
       </c>
@@ -5981,12 +5896,11 @@
       <c r="H62" s="1">
         <v>1140</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -6012,9 +5926,8 @@
         <v>1140</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -6039,12 +5952,11 @@
       <c r="H64" s="1">
         <v>1140</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>265</v>
       </c>
@@ -6069,12 +5981,11 @@
       <c r="H65" s="1">
         <v>1140</v>
       </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>208</v>
       </c>
@@ -6099,12 +6010,11 @@
       <c r="H66" s="1">
         <v>1140</v>
       </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -6130,9 +6040,8 @@
         <v>1140</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>277</v>
       </c>
@@ -6157,12 +6066,11 @@
       <c r="H68" s="1">
         <v>1140</v>
       </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>287</v>
       </c>
@@ -6188,9 +6096,8 @@
         <v>1140</v>
       </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>309</v>
       </c>
@@ -6215,8 +6122,7 @@
       <c r="H70" s="1">
         <v>1140</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/step1_alignment/data.xlsx
+++ b/step1_alignment/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanlin/Documents/GitHub/aPhyloGeo.sm/step1_alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087BA92F-EB5A-5945-BAB1-D10794AA8289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49F4ED-1C16-DB4D-9348-E70697C483F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="-21100" windowWidth="31900" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="-17020" windowWidth="31900" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1166,7 +1166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1346,6 +1346,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1507,9 +1513,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4139,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5175,7 +5183,7 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -5202,7 +5210,7 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -5229,7 +5237,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -5256,7 +5264,7 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B40" s="1" t="s">
